--- a/DMS/Templates/Kpi_Item_Report.xlsx
+++ b/DMS/Templates/Kpi_Item_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\OneDrive\My com\Rang Dong _Product\bc\Template xuất excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1FCA5F-91A1-46E7-B09E-E8DA5AA7D268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +81,13 @@
     <t>Doanh số theo đơn hàng gián tiếp</t>
   </si>
   <si>
-    <t>Số cửa hàng theo đơn gián tiếp</t>
+    <t>Số đại lý theo đơn gián tiếp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,22 +240,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,10 +249,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,82 +550,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="12.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="12.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="4" spans="1:17" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -647,82 +648,82 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="7" t="s">
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1051,16 +1052,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DMS/Templates/Kpi_Item_Report.xlsx
+++ b/DMS/Templates/Kpi_Item_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117B5D83-CF9A-4221-AEA8-33DE4880B753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF67BE-2B6F-44F2-BDE0-2080188F3251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,13 +255,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,17 +288,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,7 +580,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -600,41 +603,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -643,13 +646,13 @@
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="2"/>
@@ -657,40 +660,40 @@
       <c r="O5" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="5" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -729,68 +732,68 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="14" t="s">
         <v>31</v>
       </c>
     </row>

--- a/DMS/Templates/Kpi_Item_Report.xlsx
+++ b/DMS/Templates/Kpi_Item_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF67BE-2B6F-44F2-BDE0-2080188F3251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11566D46-2EFF-4337-84D6-33DC0EE51AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -121,6 +121,54 @@
   </si>
   <si>
     <t>{{KpiItemReports.Lines.IndirectStoreRatio}}</t>
+  </si>
+  <si>
+    <t>Sản lượng theo đơn trực tiếp</t>
+  </si>
+  <si>
+    <t>Doanh số theo đơn hàng trực tiếp</t>
+  </si>
+  <si>
+    <t>Số đơn hàng trực tiếp</t>
+  </si>
+  <si>
+    <t>Số đại lý theo đơn trực tiếp</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectQuantityPlanned}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectQuantity}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectQuantityRatio}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectRevenuePlanned}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectRevenue}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectRevenueRatio}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectAmountPlanned}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectAmount}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectAmountRatio}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectStorePlanned}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectStore}}</t>
+  </si>
+  <si>
+    <t>{{KpiItemReports.Lines.DirectStoreRatio}}</t>
   </si>
 </sst>
 </file>
@@ -263,6 +311,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -287,12 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,72 +622,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="12.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="14.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:27" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -659,41 +716,61 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="9" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -730,76 +807,164 @@
       <c r="O8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="P8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A9:O9"/>
+  <mergeCells count="15">
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:AA9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D7:F7"/>

--- a/DMS/Templates/Kpi_Item_Report.xlsx
+++ b/DMS/Templates/Kpi_Item_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RangDong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11566D46-2EFF-4337-84D6-33DC0EE51AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5A760-763E-400C-89EE-CD4E4581E403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -317,6 +317,15 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -327,20 +336,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,57 +628,57 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="14.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="13.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
+    <col min="13" max="14" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="1" customWidth="1"/>
+    <col min="18" max="19" width="14.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="13.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.75" style="1" customWidth="1"/>
+    <col min="25" max="26" width="14.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="4" spans="1:27" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
@@ -726,46 +729,46 @@
       <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="11" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="11" t="s">
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="11" t="s">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="11" t="s">
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="12"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="11" t="s">
+      <c r="W7" s="8"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="13"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -845,35 +848,35 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="12"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -885,10 +888,10 @@
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -903,28 +906,28 @@
       <c r="I10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="R10" s="5" t="s">
@@ -939,19 +942,19 @@
       <c r="U10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="16" t="s">
         <v>43</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Y10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="AA10" s="5" t="s">
@@ -960,11 +963,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:AA9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D7:F7"/>
@@ -975,6 +973,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:AA9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Kpi_Item_Report.xlsx
+++ b/DMS/Templates/Kpi_Item_Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RangDong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B5A760-763E-400C-89EE-CD4E4581E403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B2D6F-4782-4B8B-8965-28FBB0B96AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,11 +175,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _₫;[Red]#,##0.00\ _₫"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,9 +318,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,6 +328,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -335,14 +343,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,76 +632,76 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
-    <col min="13" max="14" width="12.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" style="1" customWidth="1"/>
-    <col min="18" max="19" width="14.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="13.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.75" style="1" customWidth="1"/>
-    <col min="25" max="26" width="14.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.125" style="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="14.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="4" spans="1:27" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -720,13 +724,13 @@
       <c r="O5" s="2"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -771,9 +775,9 @@
       <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -848,35 +852,35 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -888,81 +892,86 @@
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="Q10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="V10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Y10" s="16" t="s">
+      <c r="Y10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="Z10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AA10" s="16" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:AA9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D7:F7"/>
@@ -973,11 +982,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:AA9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Kpi_Item_Report.xlsx
+++ b/DMS/Templates/Kpi_Item_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RangDong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B2D6F-4782-4B8B-8965-28FBB0B96AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC5937-A45F-4086-AD50-9C99AEA9FEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -33,15 +33,6 @@
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
   <si>
-    <t>Kỳ KPI</t>
-  </si>
-  <si>
-    <t>Năm</t>
-  </si>
-  <si>
-    <t>Số đơn hàng gián tiếp</t>
-  </si>
-  <si>
     <t>Kế hoạch</t>
   </si>
   <si>
@@ -60,21 +51,6 @@
     <t>Tên sản phẩm</t>
   </si>
   <si>
-    <t>Sản lượng theo đơn gián tiếp</t>
-  </si>
-  <si>
-    <t>Doanh số theo đơn hàng gián tiếp</t>
-  </si>
-  <si>
-    <t>Số đại lý theo đơn gián tiếp</t>
-  </si>
-  <si>
-    <t>{{KpiPeriod}}</t>
-  </si>
-  <si>
-    <t>{{KpiYear}}</t>
-  </si>
-  <si>
     <t>{{KpiItemReports.Username}} - {{KpiItemReports.DisplayName}}</t>
   </si>
   <si>
@@ -87,15 +63,6 @@
     <t>{{KpiItemReports.Lines.ItemName}}</t>
   </si>
   <si>
-    <t>{{KpiItemReports.Lines.IndirectQuantityPlanned}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.IndirectQuantity}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.IndirectQuantityRatio}}</t>
-  </si>
-  <si>
     <t>{{KpiItemReports.Lines.IndirectRevenuePlanned}}</t>
   </si>
   <si>
@@ -105,15 +72,6 @@
     <t>{{KpiItemReports.Lines.IndirectRevenueRatio}}</t>
   </si>
   <si>
-    <t>{{KpiItemReports.Lines.IndirectAmountPlanned}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.IndirectAmount}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.IndirectAmountRatio}}</t>
-  </si>
-  <si>
     <t>{{KpiItemReports.Lines.IndirectStorePlanned}}</t>
   </si>
   <si>
@@ -123,52 +81,46 @@
     <t>{{KpiItemReports.Lines.IndirectStoreRatio}}</t>
   </si>
   <si>
-    <t>Sản lượng theo đơn trực tiếp</t>
-  </si>
-  <si>
-    <t>Doanh số theo đơn hàng trực tiếp</t>
-  </si>
-  <si>
-    <t>Số đơn hàng trực tiếp</t>
-  </si>
-  <si>
-    <t>Số đại lý theo đơn trực tiếp</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectQuantityPlanned}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectQuantity}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectQuantityRatio}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectRevenuePlanned}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectRevenue}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectRevenueRatio}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectAmountPlanned}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectAmount}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectAmountRatio}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectStorePlanned}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectStore}}</t>
-  </si>
-  <si>
-    <t>{{KpiItemReports.Lines.DirectStoreRatio}}</t>
+    <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>Số đại lý hiện diện</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kỳ KPI: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">{{KpiPeriod}} - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Năm: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{{KpiYear}}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -183,7 +135,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,11 +266,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,26 +278,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,359 +583,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="14.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="13.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
-    <row r="4" spans="1:27" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="9"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="H10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="I10" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA10" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:AA9"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DMS/Templates/Kpi_Item_Report.xlsx
+++ b/DMS/Templates/Kpi_Item_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RangDong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AC5937-A45F-4086-AD50-9C99AEA9FEA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2DC26-D77E-4C6E-BF07-D13869BDDD42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Tỉ lệ (%)</t>
   </si>
   <si>
-    <t>BÁO CÁO KPI THEO SẢN PHẨM TRỌNG TÂM</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
@@ -87,40 +84,13 @@
     <t>Số đại lý hiện diện</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Kỳ KPI: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">{{KpiPeriod}} - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Năm: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{{KpiYear}}</t>
-    </r>
+    <t>BÁO CÁO KPI SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>Kỳ KPI: {{KpiPeriod}} - Năm: {{KpiYear}}</t>
+  </si>
+  <si>
+    <t>Loại KPI: {{KpiItemType}}</t>
   </si>
 </sst>
 </file>
@@ -131,7 +101,7 @@
     <numFmt numFmtId="164" formatCode="#,##0\ _₫;[Red]#,##0\ _₫"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _₫;[Red]#,##0.00\ _₫"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +131,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -269,6 +232,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,6 +248,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -287,21 +266,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,7 +555,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,72 +573,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
@@ -693,49 +661,51 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D7:F7"/>
@@ -745,7 +715,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
